--- a/data/unchecked/manual_collect/germany/GermanyCaseStatistics20200213.xlsx
+++ b/data/unchecked/manual_collect/germany/GermanyCaseStatistics20200213.xlsx
@@ -10722,7 +10722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10732,8 +10732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10922,10 +10922,9 @@
       <c r="M2" s="12">
         <v>16</v>
       </c>
-      <c r="N2" s="12">
+      <c r="O2" s="12">
         <v>1</v>
       </c>
-      <c r="O2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="W2" s="19">
@@ -10970,7 +10969,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:R1048576 O2 I3:O1048576 I2:M2">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576">
